--- a/Excel/表5油水相渗数据.xlsx
+++ b/Excel/表5油水相渗数据.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\数据\自己整理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8FDA78-6F0E-4CDA-B09D-114EE81B99DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D75F9F-6967-41E1-96CD-17452921F809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表5-1相渗1" sheetId="1" r:id="rId1"/>
     <sheet name="表5-2相渗2" sheetId="2" r:id="rId2"/>
+    <sheet name="01相渗分析" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Sw</t>
   </si>
@@ -54,31 +55,74 @@
     <t>(原油粘度小于等于10适用)</t>
   </si>
   <si>
-    <t>原油粘度</t>
+    <t>(原油粘度大于10适用)</t>
   </si>
   <si>
-    <t>水相粘度</t>
+    <t>Sw</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Kro/muo</t>
+    <t>Kro</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Krw/muw</t>
+    <t>Krw</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Kro/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Krw/μw</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>含水率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>驱油效率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>采油指数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>采液指数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>(原油粘度大于10适用)</t>
+    <t>原油粘度(mPa·s)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水相粘度(mPa·s)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -86,9 +130,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,16 +169,49 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="161"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -157,13 +234,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,7 +287,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -186,6 +300,30 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,7 +596,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -656,10 +794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -667,399 +805,191 @@
     <col min="7" max="9" width="12.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <f>1-A2</f>
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D12" si="0">1-A3</f>
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53299999999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.40800000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.157</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31699999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <f>1-B4</f>
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="F4">
-        <f>D4/$C$2</f>
-        <v>0.1</v>
-      </c>
-      <c r="G4">
-        <f>C4/$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f>G4/(F4+G4)</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f>1-(1-B4)/(1-$B$4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" ref="E5:E14" si="0">1-B5</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F14" si="1">D5/$C$2</f>
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G14" si="2">C5/$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H14" si="3">G5/(F5+G5)</f>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I14" si="4">1-(1-B5)/(1-$B$4)</f>
-        <v>0.108322324966975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.77</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>6.0975609756097601E-2</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
-        <v>0.18626155878467601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>4.8500000000000001E-2</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>7.6190476190476197E-2</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
-        <v>0.240422721268164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="C8" s="3">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>0.20408163265306101</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
-        <v>0.295904887714663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>0.47930283224400899</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>0.35006605019815101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>0.71153846153846201</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
-        <v>0.40554821664465002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="C11" s="3">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>0.85245901639344301</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>0.46103038309114902</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="C12" s="3">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>0.94497607655502402</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
-        <v>0.51519154557463698</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.157</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.317</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>2E-3</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>0.157</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>0.98742138364779897</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
-        <v>0.58124174372523096</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
-        <v>0.66974900924702796</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
@@ -1068,4 +998,610 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8E53D9-A0FF-4D6D-82B4-FA8987FF9EF4}">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="15">
+        <v>10.09</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <f>1-A4</f>
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.318</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" ref="D5:D14" si="0">1-A5</f>
+        <v>0.68199999999999994</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.318</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.624</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.376</v>
+      </c>
+      <c r="I6" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.505</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="I7" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.505</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.54299999999999993</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="I8" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0.498</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.249</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.502</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.498</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.249</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.157</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.46099999999999997</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="I10" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.157</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.42100000000000004</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="I11" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J11" s="12">
+        <v>9.4E-2</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="I12" s="12">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J12" s="12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.154</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33099999999999996</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.154</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <f>1-A18</f>
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:D28" si="1">1-A19</f>
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="B22" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.53299999999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.40800000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="B26" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.157</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.31699999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/表5油水相渗数据.xlsx
+++ b/Excel/表5油水相渗数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D75F9F-6967-41E1-96CD-17452921F809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB30E05-B9B9-46A2-AA19-A8A74D744A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>Sw</t>
   </si>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Krw/μw</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>含水率</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -117,11 +113,108 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>原油粘度(mPa·s)</t>
+    <r>
+      <t>Krw/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>水相粘度(mPa·s)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(mPa·s)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(mPa·s)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smax</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -129,10 +222,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +278,28 @@
       <family val="3"/>
       <charset val="161"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,28 +422,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -332,6 +473,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -341,6 +487,2609 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Table</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>ONE </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4098155421099125"/>
+          <c:y val="2.5849005847913539E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15907201472047805"/>
+          <c:y val="0.13606787772538248"/>
+          <c:w val="0.79753501911683955"/>
+          <c:h val="0.69679760669414625"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Krw</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:bevel/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01相渗分析'!$I$4:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01相渗分析'!$J$4:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7BF-4B21-86DC-F18E6261D4FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Kro</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01相渗分析'!$I$4:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01相渗分析'!$K$4:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F7BF-4B21-86DC-F18E6261D4FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1721190064"/>
+        <c:axId val="1721184784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1721190064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>含水饱和度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48281061157335331"/>
+              <c:y val="0.89395224854124444"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721184784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1721184784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Kro &amp; Krw</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.4444844251475967E-2"/>
+              <c:y val="0.36953901588560489"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721190064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7705069060568015"/>
+          <c:y val="0.18131958157176203"/>
+          <c:w val="0.1506482793419221"/>
+          <c:h val="0.16356639966777295"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr algn="ctr">
+        <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Table</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>TWO </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4098155421099125"/>
+          <c:y val="2.5849005847913539E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15907201472047805"/>
+          <c:y val="0.13606787772538248"/>
+          <c:w val="0.79753501911683955"/>
+          <c:h val="0.69679760669414625"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Krw</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:bevel/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01相渗分析'!$I$18:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01相渗分析'!$J$18:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6229-4B47-8D3A-8FF822F49EE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Kro</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01相渗分析'!$I$18:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01相渗分析'!$K$18:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6229-4B47-8D3A-8FF822F49EE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1721190064"/>
+        <c:axId val="1721184784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1721190064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>含水饱和度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48281061157335331"/>
+              <c:y val="0.89395224854124444"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721184784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1721184784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Kro &amp; Krw</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.4444844251475967E-2"/>
+              <c:y val="0.36953901588560489"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721190064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77637820512820499"/>
+          <c:y val="0.1749852316913115"/>
+          <c:w val="0.15310897435897436"/>
+          <c:h val="0.17992306012425793"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr algn="ctr">
+        <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>64722</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F33EC9F-AE07-5DD8-E473-14467574FA1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F05E9C2-E0D6-4363-91FD-639F81BD6ABC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1002,43 +3751,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8E53D9-A0FF-4D6D-82B4-FA8987FF9EF4}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F1" s="11" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="K1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="15">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="I2" s="15">
         <v>10.09</v>
       </c>
-      <c r="G2" s="15">
+      <c r="J2" s="15">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K2" s="15">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1051,35 +3807,35 @@
       <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="11" t="s">
+      <c r="O3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.23799999999999999</v>
       </c>
@@ -1093,23 +3849,38 @@
         <f>1-A4</f>
         <v>0.76200000000000001</v>
       </c>
-      <c r="H4" s="12">
+      <c r="I4" s="15">
         <v>0.23799999999999999</v>
       </c>
-      <c r="I4" s="12">
+      <c r="J4" s="16">
         <v>0</v>
       </c>
-      <c r="J4" s="12">
+      <c r="K4" s="15">
         <v>1</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L4" s="17">
+        <f>J4/$J$2</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
+        <f>K4/$I$2</f>
+        <v>9.9108027750247768E-2</v>
+      </c>
+      <c r="N4" s="17">
+        <f>L4/(L4+M4)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="18">
+        <f>(I4-$K$2)/(1-$K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="17">
+        <f>K4/$K$4</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.318</v>
       </c>
@@ -1123,23 +3894,38 @@
         <f t="shared" ref="D5:D14" si="0">1-A5</f>
         <v>0.68199999999999994</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I5" s="16">
         <v>0.318</v>
       </c>
-      <c r="I5" s="12">
+      <c r="J5" s="16">
         <v>0</v>
       </c>
-      <c r="J5" s="12">
+      <c r="K5" s="19">
         <v>0.96</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L5" s="17">
+        <f>J5/$J$2</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="18">
+        <f>K5/$I$2</f>
+        <v>9.5143706640237857E-2</v>
+      </c>
+      <c r="N5" s="17">
+        <f t="shared" ref="N5:N14" si="1">L5/(L5+M5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="18">
+        <f>(I5-$K$2)/(1-$K$2)</f>
+        <v>0.10498687664041996</v>
+      </c>
+      <c r="P5" s="17">
+        <f>K5/$K$4</f>
+        <v>0.96</v>
+      </c>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.376</v>
       </c>
@@ -1153,23 +3939,38 @@
         <f t="shared" si="0"/>
         <v>0.624</v>
       </c>
-      <c r="H6" s="12">
+      <c r="I6" s="16">
         <v>0.376</v>
       </c>
-      <c r="I6" s="12">
+      <c r="J6" s="16">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J6" s="12">
+      <c r="K6" s="19">
         <v>0.80200000000000005</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L6" s="17">
+        <f>J6/$J$2</f>
+        <v>2.9629629629629628E-3</v>
+      </c>
+      <c r="M6" s="18">
+        <f>K6/$I$2</f>
+        <v>7.9484638255698722E-2</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" si="1"/>
+        <v>3.5937527825761754E-2</v>
+      </c>
+      <c r="O6" s="18">
+        <f>(I6-$K$2)/(1-$K$2)</f>
+        <v>0.18110236220472442</v>
+      </c>
+      <c r="P6" s="17">
+        <f>K6/$K$4</f>
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.41699999999999998</v>
       </c>
@@ -1183,23 +3984,38 @@
         <f t="shared" si="0"/>
         <v>0.58299999999999996</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="16">
         <v>0.41699999999999998</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="16">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="19">
         <v>0.505</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L7" s="17">
+        <f>J7/$J$2</f>
+        <v>2.9629629629629628E-3</v>
+      </c>
+      <c r="M7" s="18">
+        <f>K7/$I$2</f>
+        <v>5.0049554013875126E-2</v>
+      </c>
+      <c r="N7" s="17">
+        <f t="shared" si="1"/>
+        <v>5.5891761642962973E-2</v>
+      </c>
+      <c r="O7" s="18">
+        <f>(I7-$K$2)/(1-$K$2)</f>
+        <v>0.23490813648293962</v>
+      </c>
+      <c r="P7" s="17">
+        <f>K7/$K$4</f>
+        <v>0.505</v>
+      </c>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.45700000000000002</v>
       </c>
@@ -1213,23 +4029,38 @@
         <f t="shared" si="0"/>
         <v>0.54299999999999993</v>
       </c>
-      <c r="H8" s="12">
+      <c r="I8" s="16">
         <v>0.45700000000000002</v>
       </c>
-      <c r="I8" s="12">
+      <c r="J8" s="16">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="19">
         <v>0.36499999999999999</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L8" s="17">
+        <f>J8/$J$2</f>
+        <v>6.6666666666666654E-3</v>
+      </c>
+      <c r="M8" s="18">
+        <f>K8/$I$2</f>
+        <v>3.6174430128840439E-2</v>
+      </c>
+      <c r="N8" s="17">
+        <f t="shared" si="1"/>
+        <v>0.15561381863047496</v>
+      </c>
+      <c r="O8" s="18">
+        <f>(I8-$K$2)/(1-$K$2)</f>
+        <v>0.28740157480314965</v>
+      </c>
+      <c r="P8" s="17">
+        <f>K8/$K$4</f>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.498</v>
       </c>
@@ -1243,23 +4074,38 @@
         <f t="shared" si="0"/>
         <v>0.502</v>
       </c>
-      <c r="H9" s="12">
+      <c r="I9" s="16">
         <v>0.498</v>
       </c>
-      <c r="I9" s="12">
+      <c r="J9" s="16">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J9" s="12">
+      <c r="K9" s="19">
         <v>0.249</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L9" s="17">
+        <f>J9/$J$2</f>
+        <v>1.6296296296296295E-2</v>
+      </c>
+      <c r="M9" s="18">
+        <f>K9/$I$2</f>
+        <v>2.4677898909811695E-2</v>
+      </c>
+      <c r="N9" s="17">
+        <f t="shared" si="1"/>
+        <v>0.39772096106641819</v>
+      </c>
+      <c r="O9" s="18">
+        <f>(I9-$K$2)/(1-$K$2)</f>
+        <v>0.34120734908136485</v>
+      </c>
+      <c r="P9" s="17">
+        <f>K9/$K$4</f>
+        <v>0.249</v>
+      </c>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.53900000000000003</v>
       </c>
@@ -1273,23 +4119,38 @@
         <f t="shared" si="0"/>
         <v>0.46099999999999997</v>
       </c>
-      <c r="H10" s="12">
+      <c r="I10" s="16">
         <v>0.53900000000000003</v>
       </c>
-      <c r="I10" s="12">
+      <c r="J10" s="16">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="J10" s="12">
+      <c r="K10" s="19">
         <v>0.157</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L10" s="17">
+        <f>J10/$J$2</f>
+        <v>2.6666666666666661E-2</v>
+      </c>
+      <c r="M10" s="18">
+        <f>K10/$I$2</f>
+        <v>1.55599603567889E-2</v>
+      </c>
+      <c r="N10" s="17">
+        <f t="shared" si="1"/>
+        <v>0.63151306524800499</v>
+      </c>
+      <c r="O10" s="18">
+        <f>(I10-$K$2)/(1-$K$2)</f>
+        <v>0.39501312335958011</v>
+      </c>
+      <c r="P10" s="17">
+        <f>K10/$K$4</f>
+        <v>0.157</v>
+      </c>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.57899999999999996</v>
       </c>
@@ -1303,23 +4164,38 @@
         <f t="shared" si="0"/>
         <v>0.42100000000000004</v>
       </c>
-      <c r="H11" s="12">
+      <c r="I11" s="16">
         <v>0.57899999999999996</v>
       </c>
-      <c r="I11" s="12">
+      <c r="J11" s="16">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="J11" s="12">
+      <c r="K11" s="19">
         <v>9.4E-2</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L11" s="17">
+        <f>J11/$J$2</f>
+        <v>3.7777777777777771E-2</v>
+      </c>
+      <c r="M11" s="18">
+        <f>K11/$I$2</f>
+        <v>9.3161546085232909E-3</v>
+      </c>
+      <c r="N11" s="17">
+        <f t="shared" si="1"/>
+        <v>0.80217930131412796</v>
+      </c>
+      <c r="O11" s="18">
+        <f>(I11-$K$2)/(1-$K$2)</f>
+        <v>0.44750656167978997</v>
+      </c>
+      <c r="P11" s="17">
+        <f>K11/$K$4</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.62</v>
       </c>
@@ -1333,23 +4209,38 @@
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="H12" s="12">
+      <c r="I12" s="16">
         <v>0.62</v>
       </c>
-      <c r="I12" s="12">
+      <c r="J12" s="16">
         <v>7.8E-2</v>
       </c>
-      <c r="J12" s="12">
+      <c r="K12" s="19">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L12" s="17">
+        <f>J12/$J$2</f>
+        <v>5.7777777777777775E-2</v>
+      </c>
+      <c r="M12" s="18">
+        <f>K12/$I$2</f>
+        <v>4.7571853320118934E-3</v>
+      </c>
+      <c r="N12" s="17">
+        <f t="shared" si="1"/>
+        <v>0.92392759033598659</v>
+      </c>
+      <c r="O12" s="18">
+        <f>(I12-$K$2)/(1-$K$2)</f>
+        <v>0.50131233595800528</v>
+      </c>
+      <c r="P12" s="17">
+        <f>K12/$K$4</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.66900000000000004</v>
       </c>
@@ -1363,23 +4254,38 @@
         <f t="shared" si="0"/>
         <v>0.33099999999999996</v>
       </c>
-      <c r="H13" s="12">
+      <c r="I13" s="16">
         <v>0.66900000000000004</v>
       </c>
-      <c r="I13" s="12">
+      <c r="J13" s="16">
         <v>0.154</v>
       </c>
-      <c r="J13" s="12">
+      <c r="K13" s="19">
         <v>0.02</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L13" s="17">
+        <f>J13/$J$2</f>
+        <v>0.11407407407407406</v>
+      </c>
+      <c r="M13" s="18">
+        <f>K13/$I$2</f>
+        <v>1.9821605550049554E-3</v>
+      </c>
+      <c r="N13" s="17">
+        <f t="shared" si="1"/>
+        <v>0.98292068873904082</v>
+      </c>
+      <c r="O13" s="18">
+        <f>(I13-$K$2)/(1-$K$2)</f>
+        <v>0.56561679790026254</v>
+      </c>
+      <c r="P13" s="17">
+        <f>K13/$K$4</f>
+        <v>0.02</v>
+      </c>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0.73499999999999999</v>
       </c>
@@ -1393,31 +4299,66 @@
         <f t="shared" si="0"/>
         <v>0.26500000000000001</v>
       </c>
-      <c r="H14" s="12">
+      <c r="I14" s="16">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I14" s="12">
+      <c r="J14" s="16">
         <v>0.28899999999999998</v>
       </c>
-      <c r="J14" s="12">
+      <c r="K14" s="19">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="L14" s="17">
+        <f>J14/$J$2</f>
+        <v>0.21407407407407406</v>
+      </c>
+      <c r="M14" s="18">
+        <f>K14/$I$2</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="18">
+        <f>(I14-$K$2)/(1-$K$2)</f>
+        <v>0.65223097112860895</v>
+      </c>
+      <c r="P14" s="17">
+        <f>K14/$K$4</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>2</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="I16" s="15">
+        <v>10.09</v>
+      </c>
+      <c r="J16" s="15">
+        <v>1.35</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,8 +4371,35 @@
       <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0.24299999999999999</v>
       </c>
@@ -1445,8 +4413,38 @@
         <f>1-A18</f>
         <v>0.75700000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I18" s="15">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>1</v>
+      </c>
+      <c r="L18" s="17">
+        <f>J18/$J$16</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="18">
+        <f>K18/$I$16</f>
+        <v>9.9108027750247768E-2</v>
+      </c>
+      <c r="N18" s="17">
+        <f>L18/(L18+M18)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="18">
+        <f>(I18-$K$16)/(1-$K$16)</f>
+        <v>6.5616797900262527E-3</v>
+      </c>
+      <c r="P18" s="17">
+        <f>K18/$K$18</f>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0.32500000000000001</v>
       </c>
@@ -1457,11 +4455,41 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:D28" si="1">1-A19</f>
+        <f t="shared" ref="D19:D28" si="2">1-A19</f>
         <v>0.67500000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I19" s="16">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="19">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="L19" s="17">
+        <f>J19/$J$16</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
+        <f>K19/$I$16</f>
+        <v>9.1377601585728455E-2</v>
+      </c>
+      <c r="N19" s="17">
+        <f t="shared" ref="N19:N28" si="3">L19/(L19+M19)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="18">
+        <f>(I19-$K$16)/(1-$K$16)</f>
+        <v>0.11417322834645673</v>
+      </c>
+      <c r="P19" s="17">
+        <f>K19/$K$18</f>
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0.38400000000000001</v>
       </c>
@@ -1472,11 +4500,41 @@
         <v>0.77</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61599999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I20" s="16">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="J20" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K20" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="L20" s="17">
+        <f>J20/$J$16</f>
+        <v>3.7037037037037034E-3</v>
+      </c>
+      <c r="M20" s="18">
+        <f>K20/$I$16</f>
+        <v>7.6313181367690788E-2</v>
+      </c>
+      <c r="N20" s="17">
+        <f t="shared" si="3"/>
+        <v>4.6286526904903882E-2</v>
+      </c>
+      <c r="O20" s="18">
+        <f>(I20-$K$16)/(1-$K$16)</f>
+        <v>0.19160104986876642</v>
+      </c>
+      <c r="P20" s="17">
+        <f>K20/$K$18</f>
+        <v>0.77</v>
+      </c>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>0.42499999999999999</v>
       </c>
@@ -1487,11 +4545,41 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57499999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I21" s="16">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="J21" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="L21" s="17">
+        <f>J21/$J$16</f>
+        <v>2.9629629629629628E-3</v>
+      </c>
+      <c r="M21" s="18">
+        <f>K21/$I$16</f>
+        <v>4.8067393458870171E-2</v>
+      </c>
+      <c r="N21" s="17">
+        <f t="shared" si="3"/>
+        <v>5.8062752657852705E-2</v>
+      </c>
+      <c r="O21" s="18">
+        <f>(I21-$K$16)/(1-$K$16)</f>
+        <v>0.24540682414698162</v>
+      </c>
+      <c r="P21" s="17">
+        <f>K21/$K$18</f>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>0.46700000000000003</v>
       </c>
@@ -1502,11 +4590,41 @@
         <v>0.35099999999999998</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53299999999999992</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I22" s="16">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="J22" s="16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K22" s="19">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="L22" s="17">
+        <f>J22/$J$16</f>
+        <v>6.6666666666666654E-3</v>
+      </c>
+      <c r="M22" s="18">
+        <f>K22/$I$16</f>
+        <v>3.4786917740336966E-2</v>
+      </c>
+      <c r="N22" s="17">
+        <f t="shared" si="3"/>
+        <v>0.16082244182339811</v>
+      </c>
+      <c r="O22" s="18">
+        <f>(I22-$K$16)/(1-$K$16)</f>
+        <v>0.30052493438320216</v>
+      </c>
+      <c r="P22" s="17">
+        <f>K22/$K$18</f>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>0.50800000000000001</v>
       </c>
@@ -1517,11 +4635,41 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49199999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I23" s="16">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J23" s="16">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="L23" s="17">
+        <f>J23/$J$16</f>
+        <v>1.6296296296296295E-2</v>
+      </c>
+      <c r="M23" s="18">
+        <f>K23/$I$16</f>
+        <v>2.3686818632309217E-2</v>
+      </c>
+      <c r="N23" s="17">
+        <f t="shared" si="3"/>
+        <v>0.40757945761342562</v>
+      </c>
+      <c r="O23" s="18">
+        <f>(I23-$K$16)/(1-$K$16)</f>
+        <v>0.35433070866141736</v>
+      </c>
+      <c r="P23" s="17">
+        <f>K23/$K$18</f>
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -1532,11 +4680,41 @@
         <v>0.15</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I24" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J24" s="16">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K24" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="L24" s="17">
+        <f>J24/$J$16</f>
+        <v>2.7407407407407405E-2</v>
+      </c>
+      <c r="M24" s="18">
+        <f>K24/$I$16</f>
+        <v>1.4866204162537165E-2</v>
+      </c>
+      <c r="N24" s="17">
+        <f t="shared" si="3"/>
+        <v>0.64833370960179226</v>
+      </c>
+      <c r="O24" s="18">
+        <f>(I24-$K$16)/(1-$K$16)</f>
+        <v>0.40944881889763785</v>
+      </c>
+      <c r="P24" s="17">
+        <f>K24/$K$18</f>
+        <v>0.15</v>
+      </c>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>0.59199999999999997</v>
       </c>
@@ -1547,11 +4725,41 @@
         <v>0.09</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40800000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I25" s="16">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="J25" s="16">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K25" s="19">
+        <v>0.09</v>
+      </c>
+      <c r="L25" s="17">
+        <f>J25/$J$16</f>
+        <v>3.8518518518518514E-2</v>
+      </c>
+      <c r="M25" s="18">
+        <f>K25/$I$16</f>
+        <v>8.9197224975222991E-3</v>
+      </c>
+      <c r="N25" s="17">
+        <f t="shared" si="3"/>
+        <v>0.81197189637562284</v>
+      </c>
+      <c r="O25" s="18">
+        <f>(I25-$K$16)/(1-$K$16)</f>
+        <v>0.46456692913385822</v>
+      </c>
+      <c r="P25" s="17">
+        <f>K25/$K$18</f>
+        <v>0.09</v>
+      </c>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>0.63300000000000001</v>
       </c>
@@ -1562,11 +4770,41 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36699999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I26" s="16">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="J26" s="16">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="K26" s="19">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L26" s="17">
+        <f>J26/$J$16</f>
+        <v>5.8518518518518518E-2</v>
+      </c>
+      <c r="M26" s="18">
+        <f>K26/$I$16</f>
+        <v>4.5589692765113975E-3</v>
+      </c>
+      <c r="N26" s="17">
+        <f t="shared" si="3"/>
+        <v>0.92772430488471969</v>
+      </c>
+      <c r="O26" s="18">
+        <f>(I26-$K$16)/(1-$K$16)</f>
+        <v>0.51837270341207353</v>
+      </c>
+      <c r="P26" s="17">
+        <f>K26/$K$18</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>0.68300000000000005</v>
       </c>
@@ -1577,11 +4815,41 @@
         <v>0.02</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31699999999999995</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I27" s="16">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0.157</v>
+      </c>
+      <c r="K27" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="L27" s="17">
+        <f>J27/$J$16</f>
+        <v>0.11629629629629629</v>
+      </c>
+      <c r="M27" s="18">
+        <f>K27/$I$16</f>
+        <v>1.9821605550049554E-3</v>
+      </c>
+      <c r="N27" s="17">
+        <f t="shared" si="3"/>
+        <v>0.98324157578842175</v>
+      </c>
+      <c r="O27" s="18">
+        <f>(I27-$K$16)/(1-$K$16)</f>
+        <v>0.58398950131233607</v>
+      </c>
+      <c r="P27" s="17">
+        <f>K27/$K$18</f>
+        <v>0.02</v>
+      </c>
+      <c r="Q27" s="8"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>0.75</v>
       </c>
@@ -1592,16 +4860,184 @@
         <v>0</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
+      <c r="I28" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="K28" s="19">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17">
+        <f>J28/$J$16</f>
+        <v>0.2185185185185185</v>
+      </c>
+      <c r="M28" s="18">
+        <f>K28/$I$16</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="18">
+        <f>(I28-$K$16)/(1-$K$16)</f>
+        <v>0.67191601049868765</v>
+      </c>
+      <c r="P28" s="17">
+        <f>K28/$K$18</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="21"/>
+      <c r="K30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F31" s="15">
+        <f>MIN(I4,I18)</f>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="G31" s="15">
+        <f>MAX(I28,I14)</f>
+        <v>0.75</v>
+      </c>
+      <c r="I31" s="22">
+        <f>(I4-$I$4)/($I$14-$I$4)*($G$31-$F$31)+$F$31</f>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="J31" s="22">
+        <f>(I18-$I$18)/($I$28-$I$18)*($G$31-$F$31)+$F$31</f>
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I32" s="22">
+        <f t="shared" ref="I32:J40" si="4">(I5-$I$4)/($I$14-$I$4)*($G$31-$F$31)+$F$31</f>
+        <v>0.32041448692152918</v>
+      </c>
+      <c r="J32" s="22">
+        <f t="shared" ref="J32:J41" si="5">(I19-$I$18)/($I$28-$I$18)*($G$31-$F$31)+$F$31</f>
+        <v>0.32080867850098621</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="22">
+        <f t="shared" si="4"/>
+        <v>0.38016498993963788</v>
+      </c>
+      <c r="J33" s="22">
+        <f t="shared" si="5"/>
+        <v>0.38039053254437871</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="22">
+        <f t="shared" si="4"/>
+        <v>0.42240241448692151</v>
+      </c>
+      <c r="J34" s="22">
+        <f t="shared" si="5"/>
+        <v>0.4217948717948718</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I35" s="22">
+        <f t="shared" si="4"/>
+        <v>0.46360965794768616</v>
+      </c>
+      <c r="J35" s="22">
+        <f t="shared" si="5"/>
+        <v>0.46420907297830377</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I36" s="22">
+        <f t="shared" si="4"/>
+        <v>0.50584708249496979</v>
+      </c>
+      <c r="J36" s="22">
+        <f t="shared" si="5"/>
+        <v>0.50561341222879685</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I37" s="22">
+        <f t="shared" si="4"/>
+        <v>0.54808450704225353</v>
+      </c>
+      <c r="J37" s="22">
+        <f t="shared" si="5"/>
+        <v>0.54802761341222883</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="22">
+        <f>(I11-$I$4)/($I$14-$I$4)*($G$31-$F$31)+$F$31</f>
+        <v>0.58929175050301807</v>
+      </c>
+      <c r="J38" s="22">
+        <f t="shared" si="5"/>
+        <v>0.5904418145956607</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I39" s="22">
+        <f t="shared" si="4"/>
+        <v>0.63152917505030182</v>
+      </c>
+      <c r="J39" s="22">
+        <f t="shared" si="5"/>
+        <v>0.63184615384615395</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I40" s="22">
+        <f>(I13-$I$4)/($I$14-$I$4)*($G$31-$F$31)+$F$31</f>
+        <v>0.68200804828973849</v>
+      </c>
+      <c r="J40" s="22">
+        <f t="shared" si="5"/>
+        <v>0.68233925049309674</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I41" s="22">
+        <f>(I14-$I$4)/($I$14-$I$4)*($G$31-$F$31)+$F$31</f>
+        <v>0.75</v>
+      </c>
+      <c r="J41" s="22">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="I30:J30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/表5油水相渗数据.xlsx
+++ b/Excel/表5油水相渗数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB30E05-B9B9-46A2-AA19-A8A74D744A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15781E91-9102-421A-A832-9BF796C6CD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,7 +224,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -428,6 +428,27 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -440,31 +461,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3753,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8E53D9-A0FF-4D6D-82B4-FA8987FF9EF4}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3767,10 +3767,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="9" t="s">
@@ -3778,19 +3778,19 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="I2" s="15">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="I2" s="11">
         <v>10.09</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="11">
         <v>1.35</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="11">
         <v>0.23799999999999999</v>
       </c>
     </row>
@@ -3849,33 +3849,33 @@
         <f>1-A4</f>
         <v>0.76200000000000001</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="11">
         <v>0.23799999999999999</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="12">
         <v>0</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="11">
         <v>1</v>
       </c>
-      <c r="L4" s="17">
-        <f>J4/$J$2</f>
+      <c r="L4" s="13">
+        <f t="shared" ref="L4:L14" si="0">J4/$J$2</f>
         <v>0</v>
       </c>
-      <c r="M4" s="18">
-        <f>K4/$I$2</f>
+      <c r="M4" s="14">
+        <f t="shared" ref="M4:M14" si="1">K4/$I$2</f>
         <v>9.9108027750247768E-2</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="13">
         <f>L4/(L4+M4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="18">
-        <f>(I4-$K$2)/(1-$K$2)</f>
+      <c r="O4" s="14">
+        <f t="shared" ref="O4:O14" si="2">(I4-$K$2)/(1-$K$2)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="17">
-        <f>K4/$K$4</f>
+      <c r="P4" s="13">
+        <f t="shared" ref="P4:P14" si="3">K4/$K$4</f>
         <v>1</v>
       </c>
       <c r="Q4" s="8"/>
@@ -3891,36 +3891,36 @@
         <v>0.96</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D14" si="0">1-A5</f>
+        <f t="shared" ref="D5:D14" si="4">1-A5</f>
         <v>0.68199999999999994</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="12">
         <v>0.318</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="12">
         <v>0</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="15">
         <v>0.96</v>
       </c>
-      <c r="L5" s="17">
-        <f>J5/$J$2</f>
+      <c r="L5" s="13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="18">
-        <f>K5/$I$2</f>
+      <c r="M5" s="14">
+        <f t="shared" si="1"/>
         <v>9.5143706640237857E-2</v>
       </c>
-      <c r="N5" s="17">
-        <f t="shared" ref="N5:N14" si="1">L5/(L5+M5)</f>
+      <c r="N5" s="13">
+        <f t="shared" ref="N5:N14" si="5">L5/(L5+M5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="18">
-        <f>(I5-$K$2)/(1-$K$2)</f>
+      <c r="O5" s="14">
+        <f t="shared" si="2"/>
         <v>0.10498687664041996</v>
       </c>
-      <c r="P5" s="17">
-        <f>K5/$K$4</f>
+      <c r="P5" s="13">
+        <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
       <c r="Q5" s="8"/>
@@ -3936,36 +3936,36 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="D6" s="4">
+        <f t="shared" si="4"/>
+        <v>0.624</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.376</v>
+      </c>
+      <c r="J6" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="L6" s="13">
         <f t="shared" si="0"/>
-        <v>0.624</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0.376</v>
-      </c>
-      <c r="J6" s="16">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="L6" s="17">
-        <f>J6/$J$2</f>
         <v>2.9629629629629628E-3</v>
       </c>
-      <c r="M6" s="18">
-        <f>K6/$I$2</f>
+      <c r="M6" s="14">
+        <f t="shared" si="1"/>
         <v>7.9484638255698722E-2</v>
       </c>
-      <c r="N6" s="17">
-        <f t="shared" si="1"/>
+      <c r="N6" s="13">
+        <f t="shared" si="5"/>
         <v>3.5937527825761754E-2</v>
       </c>
-      <c r="O6" s="18">
-        <f>(I6-$K$2)/(1-$K$2)</f>
+      <c r="O6" s="14">
+        <f t="shared" si="2"/>
         <v>0.18110236220472442</v>
       </c>
-      <c r="P6" s="17">
-        <f>K6/$K$4</f>
+      <c r="P6" s="13">
+        <f t="shared" si="3"/>
         <v>0.80200000000000005</v>
       </c>
       <c r="Q6" s="8"/>
@@ -3981,36 +3981,36 @@
         <v>0.505</v>
       </c>
       <c r="D7" s="4">
+        <f t="shared" si="4"/>
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="J7" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.505</v>
+      </c>
+      <c r="L7" s="13">
         <f t="shared" si="0"/>
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="J7" s="16">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K7" s="19">
-        <v>0.505</v>
-      </c>
-      <c r="L7" s="17">
-        <f>J7/$J$2</f>
         <v>2.9629629629629628E-3</v>
       </c>
-      <c r="M7" s="18">
-        <f>K7/$I$2</f>
+      <c r="M7" s="14">
+        <f t="shared" si="1"/>
         <v>5.0049554013875126E-2</v>
       </c>
-      <c r="N7" s="17">
-        <f t="shared" si="1"/>
+      <c r="N7" s="13">
+        <f t="shared" si="5"/>
         <v>5.5891761642962973E-2</v>
       </c>
-      <c r="O7" s="18">
-        <f>(I7-$K$2)/(1-$K$2)</f>
+      <c r="O7" s="14">
+        <f t="shared" si="2"/>
         <v>0.23490813648293962</v>
       </c>
-      <c r="P7" s="17">
-        <f>K7/$K$4</f>
+      <c r="P7" s="13">
+        <f t="shared" si="3"/>
         <v>0.505</v>
       </c>
       <c r="Q7" s="8"/>
@@ -4026,36 +4026,36 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="D8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.54299999999999993</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="J8" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="L8" s="13">
         <f t="shared" si="0"/>
-        <v>0.54299999999999993</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="J8" s="16">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="L8" s="17">
-        <f>J8/$J$2</f>
         <v>6.6666666666666654E-3</v>
       </c>
-      <c r="M8" s="18">
-        <f>K8/$I$2</f>
+      <c r="M8" s="14">
+        <f t="shared" si="1"/>
         <v>3.6174430128840439E-2</v>
       </c>
-      <c r="N8" s="17">
-        <f t="shared" si="1"/>
+      <c r="N8" s="13">
+        <f t="shared" si="5"/>
         <v>0.15561381863047496</v>
       </c>
-      <c r="O8" s="18">
-        <f>(I8-$K$2)/(1-$K$2)</f>
+      <c r="O8" s="14">
+        <f t="shared" si="2"/>
         <v>0.28740157480314965</v>
       </c>
-      <c r="P8" s="17">
-        <f>K8/$K$4</f>
+      <c r="P8" s="13">
+        <f t="shared" si="3"/>
         <v>0.36499999999999999</v>
       </c>
       <c r="Q8" s="8"/>
@@ -4071,36 +4071,36 @@
         <v>0.249</v>
       </c>
       <c r="D9" s="4">
+        <f t="shared" si="4"/>
+        <v>0.502</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.498</v>
+      </c>
+      <c r="J9" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0.249</v>
+      </c>
+      <c r="L9" s="13">
         <f t="shared" si="0"/>
-        <v>0.502</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0.498</v>
-      </c>
-      <c r="J9" s="16">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0.249</v>
-      </c>
-      <c r="L9" s="17">
-        <f>J9/$J$2</f>
         <v>1.6296296296296295E-2</v>
       </c>
-      <c r="M9" s="18">
-        <f>K9/$I$2</f>
+      <c r="M9" s="14">
+        <f t="shared" si="1"/>
         <v>2.4677898909811695E-2</v>
       </c>
-      <c r="N9" s="17">
-        <f t="shared" si="1"/>
+      <c r="N9" s="13">
+        <f t="shared" si="5"/>
         <v>0.39772096106641819</v>
       </c>
-      <c r="O9" s="18">
-        <f>(I9-$K$2)/(1-$K$2)</f>
+      <c r="O9" s="14">
+        <f t="shared" si="2"/>
         <v>0.34120734908136485</v>
       </c>
-      <c r="P9" s="17">
-        <f>K9/$K$4</f>
+      <c r="P9" s="13">
+        <f t="shared" si="3"/>
         <v>0.249</v>
       </c>
       <c r="Q9" s="8"/>
@@ -4116,36 +4116,36 @@
         <v>0.157</v>
       </c>
       <c r="D10" s="4">
+        <f t="shared" si="4"/>
+        <v>0.46099999999999997</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="J10" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.157</v>
+      </c>
+      <c r="L10" s="13">
         <f t="shared" si="0"/>
-        <v>0.46099999999999997</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="J10" s="16">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0.157</v>
-      </c>
-      <c r="L10" s="17">
-        <f>J10/$J$2</f>
         <v>2.6666666666666661E-2</v>
       </c>
-      <c r="M10" s="18">
-        <f>K10/$I$2</f>
+      <c r="M10" s="14">
+        <f t="shared" si="1"/>
         <v>1.55599603567889E-2</v>
       </c>
-      <c r="N10" s="17">
-        <f t="shared" si="1"/>
+      <c r="N10" s="13">
+        <f t="shared" si="5"/>
         <v>0.63151306524800499</v>
       </c>
-      <c r="O10" s="18">
-        <f>(I10-$K$2)/(1-$K$2)</f>
+      <c r="O10" s="14">
+        <f t="shared" si="2"/>
         <v>0.39501312335958011</v>
       </c>
-      <c r="P10" s="17">
-        <f>K10/$K$4</f>
+      <c r="P10" s="13">
+        <f t="shared" si="3"/>
         <v>0.157</v>
       </c>
       <c r="Q10" s="8"/>
@@ -4161,36 +4161,36 @@
         <v>9.4E-2</v>
       </c>
       <c r="D11" s="4">
+        <f t="shared" si="4"/>
+        <v>0.42100000000000004</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="J11" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K11" s="15">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L11" s="13">
         <f t="shared" si="0"/>
-        <v>0.42100000000000004</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="J11" s="16">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="K11" s="19">
-        <v>9.4E-2</v>
-      </c>
-      <c r="L11" s="17">
-        <f>J11/$J$2</f>
         <v>3.7777777777777771E-2</v>
       </c>
-      <c r="M11" s="18">
-        <f>K11/$I$2</f>
+      <c r="M11" s="14">
+        <f t="shared" si="1"/>
         <v>9.3161546085232909E-3</v>
       </c>
-      <c r="N11" s="17">
-        <f t="shared" si="1"/>
+      <c r="N11" s="13">
+        <f t="shared" si="5"/>
         <v>0.80217930131412796</v>
       </c>
-      <c r="O11" s="18">
-        <f>(I11-$K$2)/(1-$K$2)</f>
+      <c r="O11" s="14">
+        <f t="shared" si="2"/>
         <v>0.44750656167978997</v>
       </c>
-      <c r="P11" s="17">
-        <f>K11/$K$4</f>
+      <c r="P11" s="13">
+        <f t="shared" si="3"/>
         <v>9.4E-2</v>
       </c>
       <c r="Q11" s="8"/>
@@ -4206,36 +4206,36 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D12" s="4">
+        <f t="shared" si="4"/>
+        <v>0.38</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="J12" s="12">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K12" s="15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L12" s="13">
         <f t="shared" si="0"/>
-        <v>0.38</v>
-      </c>
-      <c r="I12" s="16">
-        <v>0.62</v>
-      </c>
-      <c r="J12" s="16">
-        <v>7.8E-2</v>
-      </c>
-      <c r="K12" s="19">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L12" s="17">
-        <f>J12/$J$2</f>
         <v>5.7777777777777775E-2</v>
       </c>
-      <c r="M12" s="18">
-        <f>K12/$I$2</f>
+      <c r="M12" s="14">
+        <f t="shared" si="1"/>
         <v>4.7571853320118934E-3</v>
       </c>
-      <c r="N12" s="17">
-        <f t="shared" si="1"/>
+      <c r="N12" s="13">
+        <f t="shared" si="5"/>
         <v>0.92392759033598659</v>
       </c>
-      <c r="O12" s="18">
-        <f>(I12-$K$2)/(1-$K$2)</f>
+      <c r="O12" s="14">
+        <f t="shared" si="2"/>
         <v>0.50131233595800528</v>
       </c>
-      <c r="P12" s="17">
-        <f>K12/$K$4</f>
+      <c r="P12" s="13">
+        <f t="shared" si="3"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q12" s="8"/>
@@ -4251,36 +4251,36 @@
         <v>0.02</v>
       </c>
       <c r="D13" s="4">
+        <f t="shared" si="4"/>
+        <v>0.33099999999999996</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.154</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="L13" s="13">
         <f t="shared" si="0"/>
-        <v>0.33099999999999996</v>
-      </c>
-      <c r="I13" s="16">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0.154</v>
-      </c>
-      <c r="K13" s="19">
-        <v>0.02</v>
-      </c>
-      <c r="L13" s="17">
-        <f>J13/$J$2</f>
         <v>0.11407407407407406</v>
       </c>
-      <c r="M13" s="18">
-        <f>K13/$I$2</f>
+      <c r="M13" s="14">
+        <f t="shared" si="1"/>
         <v>1.9821605550049554E-3</v>
       </c>
-      <c r="N13" s="17">
-        <f t="shared" si="1"/>
+      <c r="N13" s="13">
+        <f t="shared" si="5"/>
         <v>0.98292068873904082</v>
       </c>
-      <c r="O13" s="18">
-        <f>(I13-$K$2)/(1-$K$2)</f>
+      <c r="O13" s="14">
+        <f t="shared" si="2"/>
         <v>0.56561679790026254</v>
       </c>
-      <c r="P13" s="17">
-        <f>K13/$K$4</f>
+      <c r="P13" s="13">
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="Q13" s="8"/>
@@ -4296,45 +4296,45 @@
         <v>0</v>
       </c>
       <c r="D14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
         <f t="shared" si="0"/>
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="I14" s="16">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="K14" s="19">
+        <v>0.21407407407407406</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="17">
-        <f>J14/$J$2</f>
-        <v>0.21407407407407406</v>
-      </c>
-      <c r="M14" s="18">
-        <f>K14/$I$2</f>
+      <c r="N14" s="13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="2"/>
+        <v>0.65223097112860895</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="18">
-        <f>(I14-$K$2)/(1-$K$2)</f>
-        <v>0.65223097112860895</v>
-      </c>
-      <c r="P14" s="17">
-        <f>K14/$K$4</f>
-        <v>0</v>
-      </c>
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="10" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="9" t="s">
@@ -4342,19 +4342,19 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="17">
         <v>2</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="I16" s="15">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="I16" s="11">
         <v>10.09</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="11">
         <v>1.35</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="11">
         <v>0.23799999999999999</v>
       </c>
     </row>
@@ -4413,33 +4413,33 @@
         <f>1-A18</f>
         <v>0.75700000000000001</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="11">
         <v>0.24299999999999999</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="12">
         <v>0</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="11">
         <v>1</v>
       </c>
-      <c r="L18" s="17">
-        <f>J18/$J$16</f>
+      <c r="L18" s="13">
+        <f t="shared" ref="L18:L28" si="6">J18/$J$16</f>
         <v>0</v>
       </c>
-      <c r="M18" s="18">
-        <f>K18/$I$16</f>
+      <c r="M18" s="14">
+        <f t="shared" ref="M18:M28" si="7">K18/$I$16</f>
         <v>9.9108027750247768E-2</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="13">
         <f>L18/(L18+M18)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="18">
-        <f>(I18-$K$16)/(1-$K$16)</f>
+      <c r="O18" s="14">
+        <f t="shared" ref="O18:O28" si="8">(I18-$K$16)/(1-$K$16)</f>
         <v>6.5616797900262527E-3</v>
       </c>
-      <c r="P18" s="17">
-        <f>K18/$K$18</f>
+      <c r="P18" s="13">
+        <f t="shared" ref="P18:P28" si="9">K18/$K$18</f>
         <v>1</v>
       </c>
       <c r="Q18" s="8"/>
@@ -4455,36 +4455,36 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:D28" si="2">1-A19</f>
+        <f t="shared" ref="D19:D28" si="10">1-A19</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="12">
         <v>0.32500000000000001</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="12">
         <v>0</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="15">
         <v>0.92200000000000004</v>
       </c>
-      <c r="L19" s="17">
-        <f>J19/$J$16</f>
+      <c r="L19" s="13">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M19" s="18">
-        <f>K19/$I$16</f>
+      <c r="M19" s="14">
+        <f t="shared" si="7"/>
         <v>9.1377601585728455E-2</v>
       </c>
-      <c r="N19" s="17">
-        <f t="shared" ref="N19:N28" si="3">L19/(L19+M19)</f>
+      <c r="N19" s="13">
+        <f t="shared" ref="N19:N28" si="11">L19/(L19+M19)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="18">
-        <f>(I19-$K$16)/(1-$K$16)</f>
+      <c r="O19" s="14">
+        <f t="shared" si="8"/>
         <v>0.11417322834645673</v>
       </c>
-      <c r="P19" s="17">
-        <f>K19/$K$18</f>
+      <c r="P19" s="13">
+        <f t="shared" si="9"/>
         <v>0.92200000000000004</v>
       </c>
       <c r="Q19" s="8"/>
@@ -4500,36 +4500,36 @@
         <v>0.77</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.61599999999999999</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="12">
         <v>0.38400000000000001</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="15">
         <v>0.77</v>
       </c>
-      <c r="L20" s="17">
-        <f>J20/$J$16</f>
+      <c r="L20" s="13">
+        <f t="shared" si="6"/>
         <v>3.7037037037037034E-3</v>
       </c>
-      <c r="M20" s="18">
-        <f>K20/$I$16</f>
+      <c r="M20" s="14">
+        <f t="shared" si="7"/>
         <v>7.6313181367690788E-2</v>
       </c>
-      <c r="N20" s="17">
-        <f t="shared" si="3"/>
+      <c r="N20" s="13">
+        <f t="shared" si="11"/>
         <v>4.6286526904903882E-2</v>
       </c>
-      <c r="O20" s="18">
-        <f>(I20-$K$16)/(1-$K$16)</f>
+      <c r="O20" s="14">
+        <f t="shared" si="8"/>
         <v>0.19160104986876642</v>
       </c>
-      <c r="P20" s="17">
-        <f>K20/$K$18</f>
+      <c r="P20" s="13">
+        <f t="shared" si="9"/>
         <v>0.77</v>
       </c>
       <c r="Q20" s="8"/>
@@ -4545,36 +4545,36 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.57499999999999996</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="12">
         <v>0.42499999999999999</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="12">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="15">
         <v>0.48499999999999999</v>
       </c>
-      <c r="L21" s="17">
-        <f>J21/$J$16</f>
+      <c r="L21" s="13">
+        <f t="shared" si="6"/>
         <v>2.9629629629629628E-3</v>
       </c>
-      <c r="M21" s="18">
-        <f>K21/$I$16</f>
+      <c r="M21" s="14">
+        <f t="shared" si="7"/>
         <v>4.8067393458870171E-2</v>
       </c>
-      <c r="N21" s="17">
-        <f t="shared" si="3"/>
+      <c r="N21" s="13">
+        <f t="shared" si="11"/>
         <v>5.8062752657852705E-2</v>
       </c>
-      <c r="O21" s="18">
-        <f>(I21-$K$16)/(1-$K$16)</f>
+      <c r="O21" s="14">
+        <f t="shared" si="8"/>
         <v>0.24540682414698162</v>
       </c>
-      <c r="P21" s="17">
-        <f>K21/$K$18</f>
+      <c r="P21" s="13">
+        <f t="shared" si="9"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="Q21" s="8"/>
@@ -4590,36 +4590,36 @@
         <v>0.35099999999999998</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.53299999999999992</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="12">
         <v>0.46700000000000003</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="12">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="15">
         <v>0.35099999999999998</v>
       </c>
-      <c r="L22" s="17">
-        <f>J22/$J$16</f>
+      <c r="L22" s="13">
+        <f t="shared" si="6"/>
         <v>6.6666666666666654E-3</v>
       </c>
-      <c r="M22" s="18">
-        <f>K22/$I$16</f>
+      <c r="M22" s="14">
+        <f t="shared" si="7"/>
         <v>3.4786917740336966E-2</v>
       </c>
-      <c r="N22" s="17">
-        <f t="shared" si="3"/>
+      <c r="N22" s="13">
+        <f t="shared" si="11"/>
         <v>0.16082244182339811</v>
       </c>
-      <c r="O22" s="18">
-        <f>(I22-$K$16)/(1-$K$16)</f>
+      <c r="O22" s="14">
+        <f t="shared" si="8"/>
         <v>0.30052493438320216</v>
       </c>
-      <c r="P22" s="17">
-        <f>K22/$K$18</f>
+      <c r="P22" s="13">
+        <f t="shared" si="9"/>
         <v>0.35099999999999998</v>
       </c>
       <c r="Q22" s="8"/>
@@ -4635,36 +4635,36 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.49199999999999999</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="12">
         <v>0.50800000000000001</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="12">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="15">
         <v>0.23899999999999999</v>
       </c>
-      <c r="L23" s="17">
-        <f>J23/$J$16</f>
+      <c r="L23" s="13">
+        <f t="shared" si="6"/>
         <v>1.6296296296296295E-2</v>
       </c>
-      <c r="M23" s="18">
-        <f>K23/$I$16</f>
+      <c r="M23" s="14">
+        <f t="shared" si="7"/>
         <v>2.3686818632309217E-2</v>
       </c>
-      <c r="N23" s="17">
-        <f t="shared" si="3"/>
+      <c r="N23" s="13">
+        <f t="shared" si="11"/>
         <v>0.40757945761342562</v>
       </c>
-      <c r="O23" s="18">
-        <f>(I23-$K$16)/(1-$K$16)</f>
+      <c r="O23" s="14">
+        <f t="shared" si="8"/>
         <v>0.35433070866141736</v>
       </c>
-      <c r="P23" s="17">
-        <f>K23/$K$18</f>
+      <c r="P23" s="13">
+        <f t="shared" si="9"/>
         <v>0.23899999999999999</v>
       </c>
       <c r="Q23" s="8"/>
@@ -4680,36 +4680,36 @@
         <v>0.15</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="12">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="15">
         <v>0.15</v>
       </c>
-      <c r="L24" s="17">
-        <f>J24/$J$16</f>
+      <c r="L24" s="13">
+        <f t="shared" si="6"/>
         <v>2.7407407407407405E-2</v>
       </c>
-      <c r="M24" s="18">
-        <f>K24/$I$16</f>
+      <c r="M24" s="14">
+        <f t="shared" si="7"/>
         <v>1.4866204162537165E-2</v>
       </c>
-      <c r="N24" s="17">
-        <f t="shared" si="3"/>
+      <c r="N24" s="13">
+        <f t="shared" si="11"/>
         <v>0.64833370960179226</v>
       </c>
-      <c r="O24" s="18">
-        <f>(I24-$K$16)/(1-$K$16)</f>
+      <c r="O24" s="14">
+        <f t="shared" si="8"/>
         <v>0.40944881889763785</v>
       </c>
-      <c r="P24" s="17">
-        <f>K24/$K$18</f>
+      <c r="P24" s="13">
+        <f t="shared" si="9"/>
         <v>0.15</v>
       </c>
       <c r="Q24" s="8"/>
@@ -4725,36 +4725,36 @@
         <v>0.09</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.40800000000000003</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="12">
         <v>0.59199999999999997</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="12">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="15">
         <v>0.09</v>
       </c>
-      <c r="L25" s="17">
-        <f>J25/$J$16</f>
+      <c r="L25" s="13">
+        <f t="shared" si="6"/>
         <v>3.8518518518518514E-2</v>
       </c>
-      <c r="M25" s="18">
-        <f>K25/$I$16</f>
+      <c r="M25" s="14">
+        <f t="shared" si="7"/>
         <v>8.9197224975222991E-3</v>
       </c>
-      <c r="N25" s="17">
-        <f t="shared" si="3"/>
+      <c r="N25" s="13">
+        <f t="shared" si="11"/>
         <v>0.81197189637562284</v>
       </c>
-      <c r="O25" s="18">
-        <f>(I25-$K$16)/(1-$K$16)</f>
+      <c r="O25" s="14">
+        <f t="shared" si="8"/>
         <v>0.46456692913385822</v>
       </c>
-      <c r="P25" s="17">
-        <f>K25/$K$18</f>
+      <c r="P25" s="13">
+        <f t="shared" si="9"/>
         <v>0.09</v>
       </c>
       <c r="Q25" s="8"/>
@@ -4770,36 +4770,36 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.36699999999999999</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="12">
         <v>0.63300000000000001</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="12">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="15">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="L26" s="17">
-        <f>J26/$J$16</f>
+      <c r="L26" s="13">
+        <f t="shared" si="6"/>
         <v>5.8518518518518518E-2</v>
       </c>
-      <c r="M26" s="18">
-        <f>K26/$I$16</f>
+      <c r="M26" s="14">
+        <f t="shared" si="7"/>
         <v>4.5589692765113975E-3</v>
       </c>
-      <c r="N26" s="17">
-        <f t="shared" si="3"/>
+      <c r="N26" s="13">
+        <f t="shared" si="11"/>
         <v>0.92772430488471969</v>
       </c>
-      <c r="O26" s="18">
-        <f>(I26-$K$16)/(1-$K$16)</f>
+      <c r="O26" s="14">
+        <f t="shared" si="8"/>
         <v>0.51837270341207353</v>
       </c>
-      <c r="P26" s="17">
-        <f>K26/$K$18</f>
+      <c r="P26" s="13">
+        <f t="shared" si="9"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="Q26" s="8"/>
@@ -4815,36 +4815,36 @@
         <v>0.02</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.31699999999999995</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="12">
         <v>0.68300000000000005</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="12">
         <v>0.157</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="15">
         <v>0.02</v>
       </c>
-      <c r="L27" s="17">
-        <f>J27/$J$16</f>
+      <c r="L27" s="13">
+        <f t="shared" si="6"/>
         <v>0.11629629629629629</v>
       </c>
-      <c r="M27" s="18">
-        <f>K27/$I$16</f>
+      <c r="M27" s="14">
+        <f t="shared" si="7"/>
         <v>1.9821605550049554E-3</v>
       </c>
-      <c r="N27" s="17">
-        <f t="shared" si="3"/>
+      <c r="N27" s="13">
+        <f t="shared" si="11"/>
         <v>0.98324157578842175</v>
       </c>
-      <c r="O27" s="18">
-        <f>(I27-$K$16)/(1-$K$16)</f>
+      <c r="O27" s="14">
+        <f t="shared" si="8"/>
         <v>0.58398950131233607</v>
       </c>
-      <c r="P27" s="17">
-        <f>K27/$K$18</f>
+      <c r="P27" s="13">
+        <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
       <c r="Q27" s="8"/>
@@ -4860,36 +4860,36 @@
         <v>0</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="12">
         <v>0.75</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="12">
         <v>0.29499999999999998</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="15">
         <v>0</v>
       </c>
-      <c r="L28" s="17">
-        <f>J28/$J$16</f>
+      <c r="L28" s="13">
+        <f t="shared" si="6"/>
         <v>0.2185185185185185</v>
       </c>
-      <c r="M28" s="18">
-        <f>K28/$I$16</f>
+      <c r="M28" s="14">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N28" s="17">
-        <f t="shared" si="3"/>
+      <c r="N28" s="13">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O28" s="18">
-        <f>(I28-$K$16)/(1-$K$16)</f>
+      <c r="O28" s="14">
+        <f t="shared" si="8"/>
         <v>0.67191601049868765</v>
       </c>
-      <c r="P28" s="17">
-        <f>K28/$K$18</f>
+      <c r="P28" s="13">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q28" s="8"/>
@@ -4901,10 +4901,10 @@
       <c r="G30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="21"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="9" t="s">
         <v>8</v>
       </c>
@@ -4913,120 +4913,120 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F31" s="15">
+      <c r="F31" s="11">
         <f>MIN(I4,I18)</f>
         <v>0.23799999999999999</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="11">
         <f>MAX(I28,I14)</f>
         <v>0.75</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="16">
         <f>(I4-$I$4)/($I$14-$I$4)*($G$31-$F$31)+$F$31</f>
         <v>0.23799999999999999</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="16">
         <f>(I18-$I$18)/($I$28-$I$18)*($G$31-$F$31)+$F$31</f>
         <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I32" s="22">
-        <f t="shared" ref="I32:J40" si="4">(I5-$I$4)/($I$14-$I$4)*($G$31-$F$31)+$F$31</f>
+      <c r="I32" s="16">
+        <f t="shared" ref="I32:I39" si="12">(I5-$I$4)/($I$14-$I$4)*($G$31-$F$31)+$F$31</f>
         <v>0.32041448692152918</v>
       </c>
-      <c r="J32" s="22">
-        <f t="shared" ref="J32:J41" si="5">(I19-$I$18)/($I$28-$I$18)*($G$31-$F$31)+$F$31</f>
+      <c r="J32" s="16">
+        <f t="shared" ref="J32:J41" si="13">(I19-$I$18)/($I$28-$I$18)*($G$31-$F$31)+$F$31</f>
         <v>0.32080867850098621</v>
       </c>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I33" s="22">
-        <f t="shared" si="4"/>
+      <c r="I33" s="16">
+        <f t="shared" si="12"/>
         <v>0.38016498993963788</v>
       </c>
-      <c r="J33" s="22">
-        <f t="shared" si="5"/>
+      <c r="J33" s="16">
+        <f t="shared" si="13"/>
         <v>0.38039053254437871</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="22">
-        <f t="shared" si="4"/>
+      <c r="I34" s="16">
+        <f t="shared" si="12"/>
         <v>0.42240241448692151</v>
       </c>
-      <c r="J34" s="22">
-        <f t="shared" si="5"/>
+      <c r="J34" s="16">
+        <f t="shared" si="13"/>
         <v>0.4217948717948718</v>
       </c>
     </row>
     <row r="35" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I35" s="22">
-        <f t="shared" si="4"/>
+      <c r="I35" s="16">
+        <f t="shared" si="12"/>
         <v>0.46360965794768616</v>
       </c>
-      <c r="J35" s="22">
-        <f t="shared" si="5"/>
+      <c r="J35" s="16">
+        <f t="shared" si="13"/>
         <v>0.46420907297830377</v>
       </c>
     </row>
     <row r="36" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I36" s="22">
-        <f t="shared" si="4"/>
+      <c r="I36" s="16">
+        <f t="shared" si="12"/>
         <v>0.50584708249496979</v>
       </c>
-      <c r="J36" s="22">
-        <f t="shared" si="5"/>
+      <c r="J36" s="16">
+        <f t="shared" si="13"/>
         <v>0.50561341222879685</v>
       </c>
     </row>
     <row r="37" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I37" s="22">
-        <f t="shared" si="4"/>
+      <c r="I37" s="16">
+        <f t="shared" si="12"/>
         <v>0.54808450704225353</v>
       </c>
-      <c r="J37" s="22">
-        <f t="shared" si="5"/>
+      <c r="J37" s="16">
+        <f t="shared" si="13"/>
         <v>0.54802761341222883</v>
       </c>
     </row>
     <row r="38" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I38" s="22">
+      <c r="I38" s="16">
         <f>(I11-$I$4)/($I$14-$I$4)*($G$31-$F$31)+$F$31</f>
         <v>0.58929175050301807</v>
       </c>
-      <c r="J38" s="22">
-        <f t="shared" si="5"/>
+      <c r="J38" s="16">
+        <f t="shared" si="13"/>
         <v>0.5904418145956607</v>
       </c>
     </row>
     <row r="39" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I39" s="22">
-        <f t="shared" si="4"/>
+      <c r="I39" s="16">
+        <f t="shared" si="12"/>
         <v>0.63152917505030182</v>
       </c>
-      <c r="J39" s="22">
-        <f t="shared" si="5"/>
+      <c r="J39" s="16">
+        <f t="shared" si="13"/>
         <v>0.63184615384615395</v>
       </c>
     </row>
     <row r="40" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I40" s="22">
+      <c r="I40" s="16">
         <f>(I13-$I$4)/($I$14-$I$4)*($G$31-$F$31)+$F$31</f>
         <v>0.68200804828973849</v>
       </c>
-      <c r="J40" s="22">
-        <f t="shared" si="5"/>
+      <c r="J40" s="16">
+        <f t="shared" si="13"/>
         <v>0.68233925049309674</v>
       </c>
     </row>
     <row r="41" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I41" s="22">
+      <c r="I41" s="16">
         <f>(I14-$I$4)/($I$14-$I$4)*($G$31-$F$31)+$F$31</f>
         <v>0.75</v>
       </c>
-      <c r="J41" s="22">
-        <f t="shared" si="5"/>
+      <c r="J41" s="16">
+        <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
     </row>

--- a/Excel/表5油水相渗数据.xlsx
+++ b/Excel/表5油水相渗数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15781E91-9102-421A-A832-9BF796C6CD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B9D3D6-3478-4C08-8333-CFA42269B579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +327,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,6 +453,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3753,8 +3765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8E53D9-A0FF-4D6D-82B4-FA8987FF9EF4}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3778,12 +3790,12 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
       <c r="I2" s="11">
         <v>10.09</v>
       </c>
@@ -3878,7 +3890,10 @@
         <f t="shared" ref="P4:P14" si="3">K4/$K$4</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="8"/>
+      <c r="Q4" s="18">
+        <f>K4+L4/M4*J4</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -3923,7 +3938,10 @@
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
-      <c r="Q5" s="8"/>
+      <c r="Q5" s="18">
+        <f t="shared" ref="Q5:Q13" si="6">K5+L5/M5*J5</f>
+        <v>0.96</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -3968,7 +3986,10 @@
         <f t="shared" si="3"/>
         <v>0.80200000000000005</v>
       </c>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="18">
+        <f t="shared" si="6"/>
+        <v>0.80214910870970724</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -4013,7 +4034,10 @@
         <f t="shared" si="3"/>
         <v>0.505</v>
       </c>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="18">
+        <f t="shared" si="6"/>
+        <v>0.50523680234690138</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -4058,7 +4082,10 @@
         <f t="shared" si="3"/>
         <v>0.36499999999999999</v>
       </c>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="18">
+        <f t="shared" si="6"/>
+        <v>0.3666586301369863</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -4103,7 +4130,10 @@
         <f t="shared" si="3"/>
         <v>0.249</v>
       </c>
-      <c r="Q9" s="8"/>
+      <c r="Q9" s="18">
+        <f t="shared" si="6"/>
+        <v>0.2635279190837424</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -4148,7 +4178,10 @@
         <f t="shared" si="3"/>
         <v>0.157</v>
       </c>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="18">
+        <f t="shared" si="6"/>
+        <v>0.21869681528662419</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -4193,7 +4226,10 @@
         <f t="shared" si="3"/>
         <v>9.4E-2</v>
       </c>
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="18">
+        <f t="shared" si="6"/>
+        <v>0.30080921985815595</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -4238,7 +4274,10 @@
         <f t="shared" si="3"/>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="18">
+        <f t="shared" si="6"/>
+        <v>0.99533888888888877</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -4283,7 +4322,10 @@
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="18">
+        <f>K13+L13/M13*J13</f>
+        <v>8.8827570370370363</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -4328,7 +4370,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="8"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I15" s="10" t="s">
@@ -4342,12 +4384,12 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="19">
         <v>2</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="I16" s="11">
         <v>10.09</v>
       </c>
@@ -4423,11 +4465,11 @@
         <v>1</v>
       </c>
       <c r="L18" s="13">
-        <f t="shared" ref="L18:L28" si="6">J18/$J$16</f>
+        <f t="shared" ref="L18:L28" si="7">J18/$J$16</f>
         <v>0</v>
       </c>
       <c r="M18" s="14">
-        <f t="shared" ref="M18:M28" si="7">K18/$I$16</f>
+        <f t="shared" ref="M18:M28" si="8">K18/$I$16</f>
         <v>9.9108027750247768E-2</v>
       </c>
       <c r="N18" s="13">
@@ -4435,14 +4477,17 @@
         <v>0</v>
       </c>
       <c r="O18" s="14">
-        <f t="shared" ref="O18:O28" si="8">(I18-$K$16)/(1-$K$16)</f>
+        <f t="shared" ref="O18:O28" si="9">(I18-$K$16)/(1-$K$16)</f>
         <v>6.5616797900262527E-3</v>
       </c>
       <c r="P18" s="13">
-        <f t="shared" ref="P18:P28" si="9">K18/$K$18</f>
+        <f>K18/$K$18</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="8"/>
+      <c r="Q18" s="18">
+        <f>K18+L18/M18*J18</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -4468,11 +4513,11 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="L19" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.1377601585728455E-2</v>
       </c>
       <c r="N19" s="13">
@@ -4480,14 +4525,17 @@
         <v>0</v>
       </c>
       <c r="O19" s="14">
-        <f t="shared" si="8"/>
+        <f>(I19-$K$16)/(1-$K$16)</f>
         <v>0.11417322834645673</v>
       </c>
       <c r="P19" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P19:P28" si="12">K19/$K$18</f>
         <v>0.92200000000000004</v>
       </c>
-      <c r="Q19" s="8"/>
+      <c r="Q19" s="18">
+        <f t="shared" ref="Q19:Q27" si="13">K19+L19/M19*J19</f>
+        <v>0.92200000000000004</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -4513,11 +4561,11 @@
         <v>0.77</v>
       </c>
       <c r="L20" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7037037037037034E-3</v>
       </c>
       <c r="M20" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.6313181367690788E-2</v>
       </c>
       <c r="N20" s="13">
@@ -4525,14 +4573,17 @@
         <v>4.6286526904903882E-2</v>
       </c>
       <c r="O20" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.19160104986876642</v>
       </c>
       <c r="P20" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.77</v>
       </c>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="18">
+        <f t="shared" si="13"/>
+        <v>0.77024266474266478</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -4558,11 +4609,11 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="L21" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9629629629629628E-3</v>
       </c>
       <c r="M21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8067393458870171E-2</v>
       </c>
       <c r="N21" s="13">
@@ -4570,14 +4621,17 @@
         <v>5.8062752657852705E-2</v>
       </c>
       <c r="O21" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.24540682414698162</v>
       </c>
       <c r="P21" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.48499999999999999</v>
       </c>
-      <c r="Q21" s="8"/>
+      <c r="Q21" s="18">
+        <f t="shared" si="13"/>
+        <v>0.4852465673921344</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -4603,11 +4657,11 @@
         <v>0.35099999999999998</v>
       </c>
       <c r="L22" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.6666666666666654E-3</v>
       </c>
       <c r="M22" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.4786917740336966E-2</v>
       </c>
       <c r="N22" s="13">
@@ -4615,14 +4669,17 @@
         <v>0.16082244182339811</v>
       </c>
       <c r="O22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30052493438320216</v>
       </c>
       <c r="P22" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35099999999999998</v>
       </c>
-      <c r="Q22" s="8"/>
+      <c r="Q22" s="18">
+        <f t="shared" si="13"/>
+        <v>0.35272478632478632</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -4648,11 +4705,11 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="L23" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6296296296296295E-2</v>
       </c>
       <c r="M23" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3686818632309217E-2</v>
       </c>
       <c r="N23" s="13">
@@ -4660,14 +4717,17 @@
         <v>0.40757945761342562</v>
       </c>
       <c r="O23" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.35433070866141736</v>
       </c>
       <c r="P23" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23899999999999999</v>
       </c>
-      <c r="Q23" s="8"/>
+      <c r="Q23" s="18">
+        <f t="shared" si="13"/>
+        <v>0.25413578180691149</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -4693,11 +4753,11 @@
         <v>0.15</v>
       </c>
       <c r="L24" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7407407407407405E-2</v>
       </c>
       <c r="M24" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4866204162537165E-2</v>
       </c>
       <c r="N24" s="13">
@@ -4705,14 +4765,17 @@
         <v>0.64833370960179226</v>
       </c>
       <c r="O24" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.40944881889763785</v>
       </c>
       <c r="P24" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.15</v>
       </c>
-      <c r="Q24" s="8"/>
+      <c r="Q24" s="18">
+        <f t="shared" si="13"/>
+        <v>0.21821338271604937</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -4738,11 +4801,11 @@
         <v>0.09</v>
       </c>
       <c r="L25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8518518518518514E-2</v>
       </c>
       <c r="M25" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.9197224975222991E-3</v>
       </c>
       <c r="N25" s="13">
@@ -4750,14 +4813,17 @@
         <v>0.81197189637562284</v>
       </c>
       <c r="O25" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.46456692913385822</v>
       </c>
       <c r="P25" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.09</v>
       </c>
-      <c r="Q25" s="8"/>
+      <c r="Q25" s="18">
+        <f t="shared" si="13"/>
+        <v>0.31455440329218098</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -4783,11 +4849,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="L26" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.8518518518518518E-2</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5589692765113975E-3</v>
       </c>
       <c r="N26" s="13">
@@ -4795,14 +4861,17 @@
         <v>0.92772430488471969</v>
       </c>
       <c r="O26" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.51837270341207353</v>
       </c>
       <c r="P26" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="Q26" s="8"/>
+      <c r="Q26" s="18">
+        <f t="shared" si="13"/>
+        <v>1.0600368760064414</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -4828,11 +4897,11 @@
         <v>0.02</v>
       </c>
       <c r="L27" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11629629629629629</v>
       </c>
       <c r="M27" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9821605550049554E-3</v>
       </c>
       <c r="N27" s="13">
@@ -4840,14 +4909,17 @@
         <v>0.98324157578842175</v>
       </c>
       <c r="O27" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.58398950131233607</v>
       </c>
       <c r="P27" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
-      <c r="Q27" s="8"/>
+      <c r="Q27" s="18">
+        <f t="shared" si="13"/>
+        <v>9.2314225925925921</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -4873,11 +4945,11 @@
         <v>0</v>
       </c>
       <c r="L28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2185185185185185</v>
       </c>
       <c r="M28" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N28" s="13">
@@ -4885,11 +4957,11 @@
         <v>1</v>
       </c>
       <c r="O28" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.67191601049868765</v>
       </c>
       <c r="P28" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q28" s="8"/>
@@ -4901,10 +4973,10 @@
       <c r="G30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="22"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="9" t="s">
         <v>8</v>
       </c>
@@ -4932,61 +5004,61 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I32" s="16">
-        <f t="shared" ref="I32:I39" si="12">(I5-$I$4)/($I$14-$I$4)*($G$31-$F$31)+$F$31</f>
+        <f t="shared" ref="I32:I39" si="14">(I5-$I$4)/($I$14-$I$4)*($G$31-$F$31)+$F$31</f>
         <v>0.32041448692152918</v>
       </c>
       <c r="J32" s="16">
-        <f t="shared" ref="J32:J41" si="13">(I19-$I$18)/($I$28-$I$18)*($G$31-$F$31)+$F$31</f>
+        <f t="shared" ref="J32:J41" si="15">(I19-$I$18)/($I$28-$I$18)*($G$31-$F$31)+$F$31</f>
         <v>0.32080867850098621</v>
       </c>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I33" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.38016498993963788</v>
       </c>
       <c r="J33" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.38039053254437871</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.42240241448692151</v>
       </c>
       <c r="J34" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.4217948717948718</v>
       </c>
     </row>
     <row r="35" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I35" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.46360965794768616</v>
       </c>
       <c r="J35" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.46420907297830377</v>
       </c>
     </row>
     <row r="36" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I36" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.50584708249496979</v>
       </c>
       <c r="J36" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.50561341222879685</v>
       </c>
     </row>
     <row r="37" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I37" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.54808450704225353</v>
       </c>
       <c r="J37" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.54802761341222883</v>
       </c>
     </row>
@@ -4996,17 +5068,17 @@
         <v>0.58929175050301807</v>
       </c>
       <c r="J38" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.5904418145956607</v>
       </c>
     </row>
     <row r="39" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I39" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.63152917505030182</v>
       </c>
       <c r="J39" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.63184615384615395</v>
       </c>
     </row>
@@ -5016,7 +5088,7 @@
         <v>0.68200804828973849</v>
       </c>
       <c r="J40" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.68233925049309674</v>
       </c>
     </row>
@@ -5026,7 +5098,7 @@
         <v>0.75</v>
       </c>
       <c r="J41" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.75</v>
       </c>
     </row>

--- a/Excel/表5油水相渗数据.xlsx
+++ b/Excel/表5油水相渗数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B9D3D6-3478-4C08-8333-CFA42269B579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7789DF-4151-46E8-B985-90B7C307FFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1913,6 +1913,574 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>驱油效率与含水率关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28611270203983036"/>
+          <c:y val="2.5849146563950473E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14979438058002015"/>
+          <c:y val="0.13606787772538248"/>
+          <c:w val="0.78825729018734647"/>
+          <c:h val="0.67116177840255131"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01相渗分析'!$N$18:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6286526904903882E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8062752657852705E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16082244182339811</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40757945761342562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64833370960179226</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81197189637562284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92772430488471969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98324157578842175</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01相渗分析'!$O$18:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.5616797900262527E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11417322834645673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19160104986876642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24540682414698162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30052493438320216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35433070866141736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40944881889763785</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46456692913385822</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51837270341207353</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58398950131233607</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67191601049868765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-20CE-4885-9A90-E548A06DE092}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1721190064"/>
+        <c:axId val="1721184784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1721190064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>含水率</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49208837641503361"/>
+              <c:y val="0.88882501200046671"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721184784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1721184784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000007"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>驱油效率</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5214011710074702E-2"/>
+              <c:y val="0.43830198054234698"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721190064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77637820512820499"/>
+          <c:y val="0.1749852316913115"/>
+          <c:w val="0.10823997179185978"/>
+          <c:h val="8.7714941199701163E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr algn="ctr">
+        <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1993,6 +2561,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2510,6 +3118,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3096,6 +4220,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>259976</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2396B4-232E-4DAF-BA60-FC7ECCB88484}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3765,8 +4927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8E53D9-A0FF-4D6D-82B4-FA8987FF9EF4}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="V17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AF34" sqref="AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3939,7 +5101,7 @@
         <v>0.96</v>
       </c>
       <c r="Q5" s="18">
-        <f t="shared" ref="Q5:Q13" si="6">K5+L5/M5*J5</f>
+        <f t="shared" ref="Q5:Q12" si="6">K5+L5/M5*J5</f>
         <v>0.96</v>
       </c>
     </row>
@@ -4465,11 +5627,11 @@
         <v>1</v>
       </c>
       <c r="L18" s="13">
-        <f t="shared" ref="L18:L28" si="7">J18/$J$16</f>
+        <f>J18/$J$16</f>
         <v>0</v>
       </c>
       <c r="M18" s="14">
-        <f t="shared" ref="M18:M28" si="8">K18/$I$16</f>
+        <f>K18/$I$16</f>
         <v>9.9108027750247768E-2</v>
       </c>
       <c r="N18" s="13">
@@ -4477,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="14">
-        <f t="shared" ref="O18:O28" si="9">(I18-$K$16)/(1-$K$16)</f>
+        <f t="shared" ref="O18:O28" si="7">(I18-$K$16)/(1-$K$16)</f>
         <v>6.5616797900262527E-3</v>
       </c>
       <c r="P18" s="13">
@@ -4500,7 +5662,7 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:D28" si="10">1-A19</f>
+        <f t="shared" ref="D19:D28" si="8">1-A19</f>
         <v>0.67500000000000004</v>
       </c>
       <c r="I19" s="12">
@@ -4513,11 +5675,11 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="L19" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L18:L28" si="9">J19/$J$16</f>
         <v>0</v>
       </c>
       <c r="M19" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="M18:M28" si="10">K19/$I$16</f>
         <v>9.1377601585728455E-2</v>
       </c>
       <c r="N19" s="13">
@@ -4548,7 +5710,7 @@
         <v>0.77</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.61599999999999999</v>
       </c>
       <c r="I20" s="12">
@@ -4561,11 +5723,11 @@
         <v>0.77</v>
       </c>
       <c r="L20" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.7037037037037034E-3</v>
       </c>
       <c r="M20" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.6313181367690788E-2</v>
       </c>
       <c r="N20" s="13">
@@ -4573,7 +5735,7 @@
         <v>4.6286526904903882E-2</v>
       </c>
       <c r="O20" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.19160104986876642</v>
       </c>
       <c r="P20" s="13">
@@ -4596,7 +5758,7 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="I21" s="12">
@@ -4609,11 +5771,11 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="L21" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.9629629629629628E-3</v>
       </c>
       <c r="M21" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.8067393458870171E-2</v>
       </c>
       <c r="N21" s="13">
@@ -4621,7 +5783,7 @@
         <v>5.8062752657852705E-2</v>
       </c>
       <c r="O21" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.24540682414698162</v>
       </c>
       <c r="P21" s="13">
@@ -4644,7 +5806,7 @@
         <v>0.35099999999999998</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.53299999999999992</v>
       </c>
       <c r="I22" s="12">
@@ -4657,11 +5819,11 @@
         <v>0.35099999999999998</v>
       </c>
       <c r="L22" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.6666666666666654E-3</v>
       </c>
       <c r="M22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.4786917740336966E-2</v>
       </c>
       <c r="N22" s="13">
@@ -4669,7 +5831,7 @@
         <v>0.16082244182339811</v>
       </c>
       <c r="O22" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.30052493438320216</v>
       </c>
       <c r="P22" s="13">
@@ -4692,7 +5854,7 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.49199999999999999</v>
       </c>
       <c r="I23" s="12">
@@ -4705,11 +5867,11 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="L23" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6296296296296295E-2</v>
       </c>
       <c r="M23" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.3686818632309217E-2</v>
       </c>
       <c r="N23" s="13">
@@ -4717,7 +5879,7 @@
         <v>0.40757945761342562</v>
       </c>
       <c r="O23" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.35433070866141736</v>
       </c>
       <c r="P23" s="13">
@@ -4740,7 +5902,7 @@
         <v>0.15</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="I24" s="12">
@@ -4753,11 +5915,11 @@
         <v>0.15</v>
       </c>
       <c r="L24" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7407407407407405E-2</v>
       </c>
       <c r="M24" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4866204162537165E-2</v>
       </c>
       <c r="N24" s="13">
@@ -4765,7 +5927,7 @@
         <v>0.64833370960179226</v>
       </c>
       <c r="O24" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.40944881889763785</v>
       </c>
       <c r="P24" s="13">
@@ -4788,7 +5950,7 @@
         <v>0.09</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.40800000000000003</v>
       </c>
       <c r="I25" s="12">
@@ -4801,11 +5963,11 @@
         <v>0.09</v>
       </c>
       <c r="L25" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.8518518518518514E-2</v>
       </c>
       <c r="M25" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.9197224975222991E-3</v>
       </c>
       <c r="N25" s="13">
@@ -4813,7 +5975,7 @@
         <v>0.81197189637562284</v>
       </c>
       <c r="O25" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.46456692913385822</v>
       </c>
       <c r="P25" s="13">
@@ -4836,7 +5998,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.36699999999999999</v>
       </c>
       <c r="I26" s="12">
@@ -4849,11 +6011,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="L26" s="13">
-        <f t="shared" si="7"/>
+        <f>J26/$J$16</f>
         <v>5.8518518518518518E-2</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.5589692765113975E-3</v>
       </c>
       <c r="N26" s="13">
@@ -4861,7 +6023,7 @@
         <v>0.92772430488471969</v>
       </c>
       <c r="O26" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.51837270341207353</v>
       </c>
       <c r="P26" s="13">
@@ -4884,7 +6046,7 @@
         <v>0.02</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.31699999999999995</v>
       </c>
       <c r="I27" s="12">
@@ -4897,11 +6059,11 @@
         <v>0.02</v>
       </c>
       <c r="L27" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.11629629629629629</v>
       </c>
       <c r="M27" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9821605550049554E-3</v>
       </c>
       <c r="N27" s="13">
@@ -4909,7 +6071,7 @@
         <v>0.98324157578842175</v>
       </c>
       <c r="O27" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.58398950131233607</v>
       </c>
       <c r="P27" s="13">
@@ -4932,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="I28" s="12">
@@ -4945,11 +6107,11 @@
         <v>0</v>
       </c>
       <c r="L28" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.2185185185185185</v>
       </c>
       <c r="M28" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N28" s="13">
@@ -4957,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="14">
-        <f t="shared" si="9"/>
+        <f>(I28-$K$16)/(1-$K$16)</f>
         <v>0.67191601049868765</v>
       </c>
       <c r="P28" s="13">
@@ -4982,6 +6144,14 @@
       </c>
       <c r="L30" s="9" t="s">
         <v>7</v>
+      </c>
+      <c r="N30">
+        <f>MIN(N18:N28)</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f>MIN(O18:O28)</f>
+        <v>6.5616797900262527E-3</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -5000,6 +6170,14 @@
       <c r="J31" s="16">
         <f>(I18-$I$18)/($I$28-$I$18)*($G$31-$F$31)+$F$31</f>
         <v>0.23799999999999999</v>
+      </c>
+      <c r="N31">
+        <f>MAX(N18:N28)</f>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <f>MAX(O18:O28)</f>
+        <v>0.67191601049868765</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">

--- a/Excel/表5油水相渗数据.xlsx
+++ b/Excel/表5油水相渗数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7789DF-4151-46E8-B985-90B7C307FFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A173D99-C842-4BBA-8537-A46E4C7A925D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表5-1相渗1" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +297,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -403,7 +411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,6 +467,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1961,8 +1972,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28611270203983036"/>
-          <c:y val="2.5849146563950473E-2"/>
+          <c:x val="0.34796411449232162"/>
+          <c:y val="2.5849156256892911E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2388,16 +2399,685 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr algn="ctr">
+        <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>相渗分析曲线</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4098155421099125"/>
+          <c:y val="2.5849005847913539E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15907201472047805"/>
+          <c:y val="0.13606787772538248"/>
+          <c:w val="0.79753501911683955"/>
+          <c:h val="0.69679760669414625"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01相渗分析'!$P$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>采油指数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01相渗分析'!$N$18:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6286526904903882E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8062752657852705E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16082244182339811</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40757945761342562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64833370960179226</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81197189637562284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92772430488471969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98324157578842175</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01相渗分析'!$P$18:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A7F9-4D74-9811-5D1E4AB7AFC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01相渗分析'!$Q$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>采液指数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01相渗分析'!$N$18:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6286526904903882E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8062752657852705E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16082244182339811</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40757945761342562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64833370960179226</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81197189637562284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92772430488471969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98324157578842175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01相渗分析'!$Q$18:$Q$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77024266474266478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4852465673921344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35272478632478632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25413578180691149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21821338271604937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31455440329218098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0600368760064414</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2314225925925921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A7F9-4D74-9811-5D1E4AB7AFC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1721190064"/>
+        <c:axId val="1721184784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1721190064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>含水率</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="900" b="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51165682414698166"/>
+              <c:y val="0.89395213462274681"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721184784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1721184784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>采油</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>液指数</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" b="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.8034524530587523E-2"/>
+              <c:y val="0.33197383199369207"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721190064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.77637820512820499"/>
-          <c:y val="0.1749852316913115"/>
-          <c:w val="0.10823997179185978"/>
-          <c:h val="8.7714941199701163E-2"/>
+          <c:x val="0.17701923076923076"/>
+          <c:y val="0.15874729068820198"/>
+          <c:w val="0.22435897435897437"/>
+          <c:h val="0.17475971502433066"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2601,6 +3281,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3634,6 +4354,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4258,6 +5494,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6E17B9-899B-4B17-8741-E9F6E3238C47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4927,8 +6201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8E53D9-A0FF-4D6D-82B4-FA8987FF9EF4}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AF34" sqref="AF34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AC35" sqref="AC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4952,12 +6226,12 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="I2" s="11">
         <v>10.09</v>
       </c>
@@ -5546,12 +6820,12 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="20">
         <v>2</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
       <c r="I16" s="11">
         <v>10.09</v>
       </c>
@@ -5639,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="14">
-        <f t="shared" ref="O18:O28" si="7">(I18-$K$16)/(1-$K$16)</f>
+        <f t="shared" ref="O18:O27" si="7">(I18-$K$16)/(1-$K$16)</f>
         <v>6.5616797900262527E-3</v>
       </c>
       <c r="P18" s="13">
@@ -5675,11 +6949,11 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="L19" s="13">
-        <f t="shared" ref="L18:L28" si="9">J19/$J$16</f>
+        <f t="shared" ref="L19:L28" si="9">J19/$J$16</f>
         <v>0</v>
       </c>
       <c r="M19" s="14">
-        <f t="shared" ref="M18:M28" si="10">K19/$I$16</f>
+        <f t="shared" ref="M19:M28" si="10">K19/$I$16</f>
         <v>9.1377601585728455E-2</v>
       </c>
       <c r="N19" s="13">
@@ -6118,7 +7392,7 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="19">
         <f>(I28-$K$16)/(1-$K$16)</f>
         <v>0.67191601049868765</v>
       </c>
@@ -6135,10 +7409,10 @@
       <c r="G30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="9" t="s">
         <v>8</v>
       </c>
